--- a/analysis/supplementary-materials/TableS4.xlsx
+++ b/analysis/supplementary-materials/TableS4.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucia/Desktop/GES_leporids/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28765F03-0FC4-3B4D-8330-9CD0828ACCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FC52EF-F2BF-4745-B220-2379B4E2750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{06445219-2A2E-7444-B151-6C418D5D9B14}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{76D094D4-F8F2-BC46-956C-E52F796C344A}"/>
   </bookViews>
   <sheets>
-    <sheet name="hcpc" sheetId="2" r:id="rId1"/>
-    <sheet name="kmeans" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="silhouette_scores_kmeans" localSheetId="1">kmeans!#REF!</definedName>
+    <definedName name="correlation_matrix" localSheetId="0">Sheet1!$A$1:$K$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,56 +38,201 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{77AD78A5-3E36-2842-841C-8D3ADBBC6C1B}" name="correlation_matrix" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/lucia/Desktop/GES_leporids/correlation_matrix.csv" decimal="," thousands=" " comma="1" semicolon="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>average silhouette width</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.13</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>INM</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>0.275524866780191</t>
+  </si>
+  <si>
+    <t>0.423859741257568</t>
+  </si>
+  <si>
+    <t>-0.0714910827139219</t>
+  </si>
+  <si>
+    <t>0.19188671576875</t>
+  </si>
+  <si>
+    <t>0.733797585582771</t>
+  </si>
+  <si>
+    <t>0.418016914199673</t>
+  </si>
+  <si>
+    <t>0.549962044113315</t>
+  </si>
+  <si>
+    <t>0.34013181986419</t>
+  </si>
+  <si>
+    <t>0.689415849154631</t>
+  </si>
+  <si>
+    <t>0.692912655341469</t>
+  </si>
+  <si>
+    <t>0.231105394821819</t>
+  </si>
+  <si>
+    <t>0.152782938510119</t>
+  </si>
+  <si>
+    <t>0.551731653994437</t>
+  </si>
+  <si>
+    <t>0.276785149865521</t>
+  </si>
+  <si>
+    <t>0.13311008942529</t>
+  </si>
+  <si>
+    <t>0.235233248187348</t>
+  </si>
+  <si>
+    <t>0.0848591412510608</t>
+  </si>
+  <si>
+    <t>0.118361448048552</t>
+  </si>
+  <si>
+    <t>0.152566182452444</t>
+  </si>
+  <si>
+    <t>0.706210492211973</t>
+  </si>
+  <si>
+    <t>0.338095585783882</t>
+  </si>
+  <si>
+    <t>0.174707430986902</t>
+  </si>
+  <si>
+    <t>0.344384436004342</t>
+  </si>
+  <si>
+    <t>0.306797033312786</t>
+  </si>
+  <si>
+    <t>0.17812124103607</t>
+  </si>
+  <si>
+    <t>0.203128626208532</t>
+  </si>
+  <si>
+    <t>0.610804026115343</t>
+  </si>
+  <si>
+    <t>0.230388693401998</t>
+  </si>
+  <si>
+    <t>0.269674491252387</t>
+  </si>
+  <si>
+    <t>0.164117671694733</t>
+  </si>
+  <si>
+    <t>0.13569571677641</t>
+  </si>
+  <si>
+    <t>0.21496216348785</t>
+  </si>
+  <si>
+    <t>0.279967207525085</t>
+  </si>
+  <si>
+    <t>0.624122755477402</t>
+  </si>
+  <si>
+    <t>0.464973418457679</t>
+  </si>
+  <si>
+    <t>0.620113754324152</t>
+  </si>
+  <si>
+    <t>0.398274261173997</t>
+  </si>
+  <si>
+    <t>0.364694821306824</t>
+  </si>
+  <si>
+    <t>0.449079236942273</t>
+  </si>
+  <si>
+    <t>0.366718789700374</t>
+  </si>
+  <si>
+    <t>0.34905745400201</t>
+  </si>
+  <si>
+    <t>0.381399456897732</t>
+  </si>
+  <si>
+    <t>0.198992489159437</t>
+  </si>
+  <si>
+    <t>0.539868348946267</t>
+  </si>
+  <si>
+    <t>0.443382876875587</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,12 +242,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -130,15 +268,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -156,6 +291,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="correlation_matrix" connectionId="1" xr16:uid="{EFF93B6C-B414-BC4F-AA8C-D7E36D484C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,200 +613,405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ADC027-F2D6-4D4F-98D1-56AB5CFC1320}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0770ABED-3B76-994D-8931-A5FE98798094}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05CFE4B-90AD-8A4F-8A57-9CB5DFE0A5DD}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
